--- a/database/dbexcel.xlsx
+++ b/database/dbexcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KH302\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KH302\git\team_project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="293">
   <si>
     <t>member(회원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,10 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uuid 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin_regdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1161,6 +1157,42 @@
   </si>
   <si>
     <t>ad_detail 승인설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜증났다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화났다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실망했다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 4 3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인한 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8자리코드(특영숫 다포함)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1850,7 +1882,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I5">
         <v>1002</v>
@@ -1908,10 +1940,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>49</v>
@@ -1920,7 +1952,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2044,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2062,34 +2094,34 @@
     </row>
     <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="G17" s="1">
         <v>1234</v>
       </c>
       <c r="H17" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="K17" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="L17" s="1">
         <v>1500</v>
@@ -2104,13 +2136,13 @@
         <v>20220531</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R17" s="30" t="s">
         <v>195</v>
-      </c>
-      <c r="R17" s="30" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2118,25 +2150,25 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="E18" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="G18" s="8">
         <v>1234</v>
       </c>
       <c r="H18" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>231</v>
-      </c>
       <c r="K18" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L18" s="8">
         <v>1500</v>
@@ -2151,13 +2183,13 @@
         <v>20220602</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q18" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="R18" s="22" t="s">
         <v>232</v>
-      </c>
-      <c r="R18" s="22" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2170,7 +2202,7 @@
     </row>
     <row r="20" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2188,16 +2220,16 @@
         <v>1001</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="J21" s="6">
         <v>4</v>
@@ -2217,16 +2249,16 @@
         <v>1002</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="J22" s="9">
         <v>4</v>
@@ -2254,7 +2286,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2272,16 +2304,16 @@
         <v>38</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F25" s="8">
         <v>1001</v>
       </c>
       <c r="G25" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="I25" s="24">
         <v>44714</v>
@@ -2309,7 +2341,7 @@
         <v>76</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
@@ -2322,7 +2354,7 @@
         <v>1001</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G28" s="6">
         <v>1000</v>
@@ -2336,7 +2368,7 @@
         <v>1002</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G29" s="25">
         <v>100</v>
@@ -2347,7 +2379,7 @@
         <v>1003</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G30" s="25">
         <v>500</v>
@@ -2363,7 +2395,7 @@
         <v>1004</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G31" s="26">
         <v>500</v>
@@ -2391,7 +2423,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2411,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G34" s="1">
         <v>1001</v>
@@ -2434,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G35" s="8">
         <v>1004</v>
@@ -2503,7 +2535,7 @@
         <v>74</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2528,7 +2560,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2565,7 +2597,7 @@
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2578,16 +2610,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="F11" s="31">
         <v>0.2951388888888889</v>
@@ -2598,16 +2630,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="F12" s="28">
         <v>0.3125</v>
@@ -2658,10 +2690,10 @@
         <v>74</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2677,7 +2709,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>72</v>
@@ -2711,7 +2743,7 @@
     <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2723,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="D10" s="33">
         <v>0.31597222222222221</v>
@@ -2749,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2758,7 +2790,7 @@
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
@@ -2791,12 +2823,12 @@
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>115</v>
@@ -2805,10 +2837,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -2816,26 +2848,26 @@
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="D4" s="9"/>
       <c r="F4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2844,19 +2876,19 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
@@ -2868,13 +2900,13 @@
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>2</v>
@@ -2883,24 +2915,24 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="F8" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -2909,10 +2941,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>19</v>
@@ -2921,83 +2953,83 @@
         <v>20</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="F10" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>94</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I11" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>168</v>
-      </c>
       <c r="K11" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>2</v>
@@ -3005,39 +3037,39 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="6"/>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3045,16 +3077,16 @@
     </row>
     <row r="17" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>216</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>19</v>
@@ -3064,12 +3096,12 @@
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F18" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>3</v>
@@ -3078,15 +3110,15 @@
         <v>97</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>3</v>
@@ -3095,55 +3127,55 @@
         <v>97</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="F20" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G20" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F21" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
@@ -3151,37 +3183,71 @@
       <c r="C22" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>93</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3191,7 +3257,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F26" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -3203,7 +3269,7 @@
         <v>20220602</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -3214,7 +3280,7 @@
         <v>20220602</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -3225,7 +3291,7 @@
         <v>20220602</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3236,7 +3302,7 @@
         <v>20220602</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3257,7 +3323,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="F32" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3269,7 +3335,7 @@
     </row>
     <row r="33" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -3278,13 +3344,13 @@
         <v>24</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H33" s="8">
         <v>20220602</v>
@@ -3293,10 +3359,10 @@
         <v>20220630</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L33" s="8">
         <v>2</v>
@@ -3307,7 +3373,7 @@
     </row>
     <row r="34" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>61</v>
@@ -3327,7 +3393,7 @@
         <v>63</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -3335,7 +3401,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>52</v>
@@ -3347,55 +3413,55 @@
         <v>1</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D37" t="s">
         <v>278</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D37" t="s">
-        <v>279</v>
       </c>
       <c r="F37" s="7">
         <v>2</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H37" s="8">
         <v>1</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>281</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F39" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -3406,10 +3472,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H40" s="23" t="s">
         <v>247</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>248</v>
       </c>
       <c r="I40" s="9">
         <v>20220602</v>
@@ -3418,7 +3484,7 @@
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F42" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3436,10 +3502,10 @@
         <v>32453246</v>
       </c>
       <c r="H43" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="J43" s="1">
         <v>20220602</v>
@@ -3448,10 +3514,10 @@
         <v>1</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3462,10 +3528,10 @@
         <v>32453246</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J44" s="8">
         <v>20220602</v>
@@ -3474,16 +3540,16 @@
         <v>1</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F47" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3496,16 +3562,16 @@
         <v>1</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K48" s="9">
         <v>20220602</v>

--- a/database/dbexcel.xlsx
+++ b/database/dbexcel.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="309">
   <si>
     <t>member(회원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,15 +278,972 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>foreigin key(m_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로잉 추후구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_is_smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건 최소2~4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_code 차량판별코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_name 차량명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_brand 차량브랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_brand_img 차브랜드 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_car_img 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_people_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_no 차량번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_code 차량판별코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>m_id 회원아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>c_is_driver 운전가능여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_approvedate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_wait(운전자승인대기)--&gt;관리자영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger 동승자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(m_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(driver_seq)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver 내일운전할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_seq 테이블 고유번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 운전자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_depart_location 운전자 출발 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_is_smoke 드라이버 흡연 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_comment 드라이버 요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_depart_time 드라이버 출발 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger_seq 테이블 고유 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 동승자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger_depart_time 동승자 출발 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">driver_seq 운전자 번호 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin(관리자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_startdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_enddate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut sysdate+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_is_finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당첨자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_winner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(event_seq)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_max_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_winner_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_winner_is_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_attach_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq 번호랑 일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackList_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_m_id 신고받은 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고받은 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제보자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_content 신고내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cellphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 이용문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_is_processed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 처리 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 제보자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보관일 명시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger_depart_location 동승자 위치(주소 포함,위도 경도 저장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 위도 경도 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 신정동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01012345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변(1:1 문의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아반떼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 이미지(se)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산타페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 이미지(su)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carinfo(차량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12가 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_code(포인트 코드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주유권(30000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자 평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전 5회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_hitory 포인트 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drvier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 신정동 / 100, 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료들고 타지 마세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lee@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경리부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 천곡동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01012349876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lee@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 천곡동 / 500, 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자는 탑승하지 마세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lee@emai..com </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 천곡동 / 500, 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자 평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한달간 운전자 평점 상위 2명 포인트 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_winnner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면허 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 문의자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(admin_code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자승인 빨리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 이용문의 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트, 기타 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레기 두고 내림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_point_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_driver</t>
+  </si>
+  <si>
+    <t>seq_passenger</t>
+  </si>
+  <si>
+    <t>seq_event</t>
+  </si>
+  <si>
+    <t>seq_event_winner</t>
+  </si>
+  <si>
+    <t>seq_complain</t>
+  </si>
+  <si>
+    <t>seq_blacklist</t>
+  </si>
+  <si>
+    <t>admin_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_seq 테이블고유 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_license_img 면허파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_regdate 등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_approve 승인여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y: 승인 W:대기 C:취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 승인 대기 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_approve_driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_detail 승인설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜증났다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화났다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실망했다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 4 3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인한 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8자리코드(특영숫 다포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 회원아이디</t>
+  </si>
+  <si>
     <t>foreigin key(m_id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default sysdate</t>
+    <t>foreigin key(event_seq)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(ep_seq)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_participation(이벤트 참가리스트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_event_participation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항 이벤트당 테이블1추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep_is_winner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -294,905 +1251,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔로잉 추후구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_is_smoke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건 최소2~4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_code 차량판별코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_name 차량명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_brand 차량브랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_brand_img 차브랜드 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_car_img 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_people_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_no 차량번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_code 차량판별코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 회원아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_is_driver 운전가능여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_approvedate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>approve_wait(운전자승인대기)--&gt;관리자영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger 동승자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(m_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(driver_seq)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver 내일운전할</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_seq 테이블 고유번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 운전자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_depart_location 운전자 출발 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_is_smoke 드라이버 흡연 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_comment 드라이버 요구사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_depart_time 드라이버 출발 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger_seq 테이블 고유 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 동승자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger_depart_time 동승자 출발 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">driver_seq 운전자 번호 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin(관리자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제약조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특이사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_regdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_startdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_enddate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut sysdate+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(4000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_is_finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당첨자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_winner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 당첨자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(event_seq)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_max_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_winner_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_winner_is_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(4000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_regdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_attach_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq 번호랑 일치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackList_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_m_id 신고받은 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고받은 사람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제보자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_content 신고내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_classification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cellphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 이용문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(4000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_is_processed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 처리 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 제보자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_regdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보관일 명시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger_depart_location 동승자 위치(주소 포함,위도 경도 저장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 위도 경도 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 신정동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01012345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변(1:1 문의)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아반떼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 이미지(se)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산타페</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 이미지(su)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carinfo(차량)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12가 1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_code(포인트 코드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주유권(30000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자 평가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전 5회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_hitory 포인트 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drvier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 신정동 / 100, 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음료들고 타지 마세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lee@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재곤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경리부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 천곡동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01012349876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lee@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 천곡동 / 500, 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남자는 탑승하지 마세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">lee@emai..com </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 천곡동 / 500, 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자 평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한달간 운전자 평점 상위 2명 포인트 지급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_winnner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>approve_wait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면허 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 문의자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(admin_code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자승인 빨리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 이용문의 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트, 기타 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰레기 두고 내림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq_point_history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq_driver</t>
-  </si>
-  <si>
-    <t>seq_passenger</t>
-  </si>
-  <si>
-    <t>seq_event</t>
-  </si>
-  <si>
-    <t>seq_event_winner</t>
-  </si>
-  <si>
-    <t>seq_complain</t>
-  </si>
-  <si>
-    <t>seq_blacklist</t>
-  </si>
-  <si>
-    <t>admin_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_seq 테이블고유 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_license_img 면허파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_regdate 등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_approve 승인여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y: 승인 W:대기 C:취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 승인 대기 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq_approve_driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_detail 승인설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜증났다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화났다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실망했다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5 4 3 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인한 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8자리코드(특영숫 다포함)</t>
+    <t>default 'N'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당첨유무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1770,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1824,7 +1887,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>26</v>
@@ -1844,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>42</v>
@@ -1873,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>19</v>
@@ -1882,7 +1945,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I5">
         <v>1002</v>
@@ -1940,10 +2003,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>49</v>
@@ -1952,7 +2015,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1998,7 +2061,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
@@ -2018,7 +2081,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>52</v>
@@ -2043,13 +2106,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2057,7 +2120,7 @@
     </row>
     <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="15"/>
@@ -2067,16 +2130,16 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2094,34 +2157,34 @@
     </row>
     <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G17" s="1">
         <v>1234</v>
       </c>
       <c r="H17" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="K17" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="L17" s="1">
         <v>1500</v>
@@ -2136,13 +2199,13 @@
         <v>20220531</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="R17" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2150,25 +2213,25 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="E18" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G18" s="8">
         <v>1234</v>
       </c>
       <c r="H18" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>230</v>
-      </c>
       <c r="K18" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L18" s="8">
         <v>1500</v>
@@ -2183,13 +2246,13 @@
         <v>20220602</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2202,7 +2265,7 @@
     </row>
     <row r="20" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2220,16 +2283,16 @@
         <v>1001</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="J21" s="6">
         <v>4</v>
@@ -2237,7 +2300,7 @@
     </row>
     <row r="22" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>26</v>
@@ -2249,16 +2312,16 @@
         <v>1002</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G22" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="I22" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J22" s="9">
         <v>4</v>
@@ -2266,7 +2329,7 @@
     </row>
     <row r="23" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>36</v>
@@ -2277,7 +2340,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
@@ -2286,7 +2349,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2295,7 +2358,7 @@
     </row>
     <row r="25" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
@@ -2304,16 +2367,16 @@
         <v>38</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F25" s="8">
         <v>1001</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I25" s="24">
         <v>44714</v>
@@ -2321,7 +2384,7 @@
     </row>
     <row r="26" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>37</v>
@@ -2332,16 +2395,16 @@
     </row>
     <row r="27" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
@@ -2354,7 +2417,7 @@
         <v>1001</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G28" s="6">
         <v>1000</v>
@@ -2368,7 +2431,7 @@
         <v>1002</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G29" s="25">
         <v>100</v>
@@ -2379,7 +2442,7 @@
         <v>1003</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G30" s="25">
         <v>500</v>
@@ -2395,7 +2458,7 @@
         <v>1004</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G31" s="26">
         <v>500</v>
@@ -2403,7 +2466,7 @@
     </row>
     <row r="32" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
@@ -2414,7 +2477,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
@@ -2423,7 +2486,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2431,7 +2494,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
@@ -2443,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G34" s="1">
         <v>1001</v>
@@ -2454,7 +2517,7 @@
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>30</v>
@@ -2466,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G35" s="8">
         <v>1004</v>
@@ -2477,7 +2540,7 @@
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>47</v>
@@ -2519,85 +2582,85 @@
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2610,16 +2673,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="F11" s="31">
         <v>0.2951388888888889</v>
@@ -2630,16 +2693,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="F12" s="28">
         <v>0.3125</v>
@@ -2674,45 +2737,45 @@
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>2</v>
@@ -2720,30 +2783,30 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2755,10 +2818,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D10" s="33">
         <v>0.31597222222222221</v>
@@ -2781,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2790,7 +2853,7 @@
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
@@ -2803,44 +2866,44 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
-        <v>112</v>
-      </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -2848,26 +2911,26 @@
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="D4" s="9"/>
       <c r="F4" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2876,37 +2939,37 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>2</v>
@@ -2915,24 +2978,24 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="F8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -2941,10 +3004,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>19</v>
@@ -2953,83 +3016,83 @@
         <v>20</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="F10" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>167</v>
-      </c>
       <c r="K11" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M11" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>2</v>
@@ -3037,39 +3100,39 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="6"/>
       <c r="F15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3077,117 +3140,117 @@
     </row>
     <row r="17" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>215</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F18" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="F20" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F21" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="I21" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="15" t="s">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>181</v>
-      </c>
       <c r="G22" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>53</v>
@@ -3196,58 +3259,58 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F23" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="I23" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="K23" s="10" t="s">
+      <c r="L23" s="10" t="s">
         <v>287</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>289</v>
       </c>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3257,7 +3320,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F26" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -3269,7 +3332,7 @@
         <v>20220602</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -3280,7 +3343,7 @@
         <v>20220602</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -3291,7 +3354,7 @@
         <v>20220602</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3302,7 +3365,7 @@
         <v>20220602</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3318,12 +3381,12 @@
     </row>
     <row r="32" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="F32" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3335,7 +3398,7 @@
     </row>
     <row r="33" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -3344,13 +3407,13 @@
         <v>24</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H33" s="8">
         <v>20220602</v>
@@ -3359,10 +3422,10 @@
         <v>20220630</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L33" s="8">
         <v>2</v>
@@ -3373,7 +3436,7 @@
     </row>
     <row r="34" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>61</v>
@@ -3384,107 +3447,139 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D37" t="s">
         <v>276</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D37" t="s">
-        <v>278</v>
       </c>
       <c r="F37" s="7">
         <v>2</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H37" s="8">
         <v>1</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F39" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D40" t="s">
+        <v>304</v>
+      </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I40" s="9">
         <v>20220602</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>303</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3495,6 +3590,15 @@
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>299</v>
+      </c>
       <c r="F43" s="5">
         <v>1</v>
       </c>
@@ -3502,10 +3606,10 @@
         <v>32453246</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J43" s="1">
         <v>20220602</v>
@@ -3514,13 +3618,22 @@
         <v>1</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="F44" s="7">
         <v>2</v>
       </c>
@@ -3528,10 +3641,10 @@
         <v>32453246</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J44" s="8">
         <v>20220602</v>
@@ -3540,16 +3653,30 @@
         <v>1</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F47" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3562,16 +3689,16 @@
         <v>1</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H48" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="J48" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="K48" s="9">
         <v>20220602</v>

--- a/database/dbexcel.xlsx
+++ b/database/dbexcel.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="312">
   <si>
     <t>member(회원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1112,10 +1112,6 @@
     <t>seq_blacklist</t>
   </si>
   <si>
-    <t>admin_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ad_seq 테이블고유 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1193,6 +1189,86 @@
   </si>
   <si>
     <t>8자리코드(특영숫 다포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸쪽지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_m_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_admin_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender_m_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender_admin_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(2000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senddate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opendate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1269,7 +1345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1357,6 +1433,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1366,7 +1479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1485,6 +1598,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1770,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2505,7 +2627,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2779,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2828,7 +2950,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>115</v>
@@ -2837,7 +2959,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>146</v>
@@ -3205,25 +3327,25 @@
         <v>139</v>
       </c>
       <c r="F23" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="I23" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="J23" s="10" t="s">
+      <c r="L23" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>289</v>
       </c>
       <c r="M23" s="10"/>
     </row>
@@ -3247,7 +3369,7 @@
         <v>253</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3335,7 +3457,7 @@
     </row>
     <row r="33" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -3344,7 +3466,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
@@ -3373,7 +3495,7 @@
     </row>
     <row r="34" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>61</v>
@@ -3401,7 +3523,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>52</v>
@@ -3424,16 +3546,16 @@
     </row>
     <row r="37" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" t="s">
         <v>277</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D37" t="s">
-        <v>278</v>
       </c>
       <c r="F37" s="7">
         <v>2</v>
@@ -3450,13 +3572,13 @@
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -3468,6 +3590,15 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" t="s">
+        <v>293</v>
+      </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
@@ -3481,8 +3612,23 @@
         <v>20220602</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>297</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>248</v>
       </c>
@@ -3495,6 +3641,18 @@
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>300</v>
+      </c>
       <c r="F43" s="5">
         <v>1</v>
       </c>
@@ -3521,6 +3679,18 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>300</v>
+      </c>
       <c r="F44" s="7">
         <v>2</v>
       </c>
@@ -3546,8 +3716,44 @@
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="F47" s="2" t="s">
         <v>263</v>
       </c>
@@ -3558,6 +3764,15 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>309</v>
+      </c>
       <c r="F48" s="7">
         <v>1</v>
       </c>
@@ -3575,6 +3790,17 @@
       </c>
       <c r="K48" s="9">
         <v>20220602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/database/dbexcel.xlsx
+++ b/database/dbexcel.xlsx
@@ -1231,31 +1231,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>event_participation(이벤트 참가리스트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>seq_event_participation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ep_is_winner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'N'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당첨유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>특이사항 이벤트당 테이블1추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ep_is_winner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 'N'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당첨유무</t>
+    <t>event_participation_eq넘버(이벤트 참가리스트)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2844,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3543,7 +3543,7 @@
         <v>294</v>
       </c>
       <c r="D40" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -3576,7 +3576,7 @@
         <v>297</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>246</v>
@@ -3625,13 +3625,13 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>300</v>
       </c>
       <c r="F44" s="7">
@@ -3659,18 +3659,18 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="D45" s="10" t="s">
         <v>306</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>

--- a/database/dbexcel.xlsx
+++ b/database/dbexcel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KH302\git\team_project\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KH302\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="회원가입" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="293">
   <si>
     <t>member(회원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>m_id 회원아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>foreigin key(m_id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조건 최소2~4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ci_code 차량판별코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,6 +574,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>m_id 당첨자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>event_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1188,74 +1192,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>event_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제약조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ep_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 회원아이디</t>
-  </si>
-  <si>
-    <t>foreigin key(m_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreigin key(event_seq)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(ep_seq)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq_event_participation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ep_is_winner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 'N'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당첨유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특이사항 이벤트당 테이블1추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_participation_eq넘버(이벤트 참가리스트)</t>
+    <t>조건 최소1~4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1833,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1945,7 +1882,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I5">
         <v>1002</v>
@@ -2003,10 +1940,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>49</v>
@@ -2015,7 +1952,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2106,13 +2043,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2120,7 +2057,7 @@
     </row>
     <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="15"/>
@@ -2130,16 +2067,16 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2157,34 +2094,34 @@
     </row>
     <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G17" s="1">
         <v>1234</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L17" s="1">
         <v>1500</v>
@@ -2199,13 +2136,13 @@
         <v>20220531</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2213,25 +2150,25 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="E18" s="21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G18" s="8">
         <v>1234</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L18" s="8">
         <v>1500</v>
@@ -2246,13 +2183,13 @@
         <v>20220602</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2265,7 +2202,7 @@
     </row>
     <row r="20" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2283,16 +2220,16 @@
         <v>1001</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J21" s="6">
         <v>4</v>
@@ -2312,16 +2249,16 @@
         <v>1002</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J22" s="9">
         <v>4</v>
@@ -2349,7 +2286,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2367,16 +2304,16 @@
         <v>38</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F25" s="8">
         <v>1001</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I25" s="24">
         <v>44714</v>
@@ -2390,7 +2327,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2401,10 +2338,10 @@
         <v>19</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>75</v>
+        <v>292</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
@@ -2417,7 +2354,7 @@
         <v>1001</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G28" s="6">
         <v>1000</v>
@@ -2431,7 +2368,7 @@
         <v>1002</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G29" s="25">
         <v>100</v>
@@ -2442,7 +2379,7 @@
         <v>1003</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G30" s="25">
         <v>500</v>
@@ -2458,7 +2395,7 @@
         <v>1004</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G31" s="26">
         <v>500</v>
@@ -2486,7 +2423,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2506,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G34" s="1">
         <v>1001</v>
@@ -2529,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G35" s="8">
         <v>1004</v>
@@ -2592,13 +2529,13 @@
         <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2609,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2617,13 +2554,13 @@
         <v>101</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2631,7 +2568,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>92</v>
@@ -2642,7 +2579,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -2660,7 +2597,7 @@
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2673,16 +2610,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F11" s="31">
         <v>0.2951388888888889</v>
@@ -2693,16 +2630,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F12" s="28">
         <v>0.3125</v>
@@ -2750,13 +2687,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2772,10 +2709,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>2</v>
@@ -2797,7 +2734,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>97</v>
@@ -2806,7 +2743,7 @@
     <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2818,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D10" s="33">
         <v>0.31597222222222221</v>
@@ -2844,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B45"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2853,7 +2790,7 @@
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
@@ -2886,12 +2823,12 @@
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>114</v>
@@ -2900,10 +2837,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -2921,16 +2858,16 @@
       </c>
       <c r="D4" s="9"/>
       <c r="F4" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2939,19 +2876,19 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
@@ -2966,10 +2903,10 @@
         <v>119</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>2</v>
@@ -2983,13 +2920,13 @@
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="F8" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -3004,10 +2941,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>19</v>
@@ -3016,7 +2953,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3030,10 +2967,10 @@
         <v>124</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="35"/>
@@ -3049,31 +2986,31 @@
         <v>53</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>93</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K11" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M11" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>169</v>
-      </c>
       <c r="N11" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -3114,25 +3051,25 @@
         <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="6"/>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3140,16 +3077,16 @@
     </row>
     <row r="17" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>19</v>
@@ -3159,12 +3096,12 @@
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F18" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>3</v>
@@ -3173,7 +3110,7 @@
         <v>96</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3181,7 +3118,7 @@
         <v>134</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>3</v>
@@ -3190,7 +3127,7 @@
         <v>96</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3200,57 +3137,57 @@
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="F20" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>295</v>
-      </c>
-      <c r="B22" t="s">
-        <v>296</v>
+      <c r="A22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>301</v>
+        <v>96</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>53</v>
@@ -3259,58 +3196,58 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I23" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>114</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3320,7 +3257,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F26" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -3332,7 +3269,7 @@
         <v>20220602</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -3343,7 +3280,7 @@
         <v>20220602</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -3354,7 +3291,7 @@
         <v>20220602</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3365,7 +3302,7 @@
         <v>20220602</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3386,7 +3323,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="F32" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3398,7 +3335,7 @@
     </row>
     <row r="33" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -3407,13 +3344,13 @@
         <v>24</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H33" s="8">
         <v>20220602</v>
@@ -3422,10 +3359,10 @@
         <v>20220630</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L33" s="8">
         <v>2</v>
@@ -3436,7 +3373,7 @@
     </row>
     <row r="34" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>61</v>
@@ -3447,139 +3384,107 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
-        <v>291</v>
-      </c>
+      <c r="H35" s="3"/>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" t="s">
         <v>277</v>
-      </c>
-      <c r="D37" t="s">
-        <v>276</v>
       </c>
       <c r="F37" s="7">
         <v>2</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H37" s="8">
         <v>1</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F39" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D40" t="s">
-        <v>307</v>
-      </c>
+    <row r="40" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I40" s="9">
         <v>20220602</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-    </row>
+    <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>302</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3590,15 +3495,6 @@
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="F43" s="5">
         <v>1</v>
       </c>
@@ -3606,10 +3502,10 @@
         <v>32453246</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J43" s="1">
         <v>20220602</v>
@@ -3618,22 +3514,13 @@
         <v>1</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="F44" s="7">
         <v>2</v>
       </c>
@@ -3641,10 +3528,10 @@
         <v>32453246</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J44" s="8">
         <v>20220602</v>
@@ -3653,30 +3540,16 @@
         <v>1</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F47" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3689,16 +3562,16 @@
         <v>1</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K48" s="9">
         <v>20220602</v>

--- a/database/dbexcel.xlsx
+++ b/database/dbexcel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KH302\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KH302\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="회원가입" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="283">
   <si>
     <t>member(회원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>carinfo(차량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> priamry key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_code(포인트 코드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_history포인트 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_joindate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(m_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(p_code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 회원아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreigin key(m_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>char(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,6 +282,542 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>팔로잉 추후구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_is_smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_code 차량판별코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_name 차량명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_brand 차량브랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_brand_img 차브랜드 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_car_img 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_no 차량번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_code 차량판별코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 회원아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_wait(운전자승인대기)--&gt;관리자영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger 동승자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(m_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(driver_seq)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver 내일운전할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_seq 테이블 고유번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 운전자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_depart_location 운전자 출발 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_is_smoke 드라이버 흡연 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_comment 드라이버 요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_depart_time 드라이버 출발 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger_seq 테이블 고유 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 동승자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger_depart_time 동승자 출발 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">driver_seq 운전자 번호 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin(관리자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_startdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_enddate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut sysdate+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_is_finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당첨자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_winner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 당첨자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(event_seq)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_max_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_winner_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_winner_is_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_attach_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq 번호랑 일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackList_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_m_id 신고받은 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고받은 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제보자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_content 신고내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cellphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 이용문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_is_processed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 처리 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 제보자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보관일 명시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger_depart_location 동승자 위치(주소 포함,위도 경도 저장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 위도 경도 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 신정동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01012345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변(1:1 문의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아반떼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 이미지(se)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산타페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 이미지(su)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>carinfo(차량)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,15 +826,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> priamry key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(50)</t>
+    <t>12가 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_code(포인트 코드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주유권(30000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자 평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전 5회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_hitory 포인트 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drvier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 신정동 / 100, 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료들고 타지 마세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lee@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경리부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 천곡동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01012349876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lee@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 천곡동 / 500, 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자는 탑승하지 마세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lee@emai..com </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 천곡동 / 500, 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자 평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한달간 운전자 평점 상위 2명 포인트 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_winnner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면허 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 문의자 아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,31 +1014,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_code(포인트 코드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_history포인트 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_joindate</t>
+    <t>foreign key(admin_code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자승인 빨리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 이용문의 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트, 기타 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레기 두고 내림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_point_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_driver</t>
+  </si>
+  <si>
+    <t>seq_passenger</t>
+  </si>
+  <si>
+    <t>seq_event</t>
+  </si>
+  <si>
+    <t>seq_event_winner</t>
+  </si>
+  <si>
+    <t>seq_complain</t>
+  </si>
+  <si>
+    <t>seq_blacklist</t>
+  </si>
+  <si>
+    <t>admin_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_seq 테이블고유 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_license_img 면허파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_regdate 등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_approve 승인여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y: 승인 W:대기 C:취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 승인 대기 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_approve_driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_detail 승인설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_max_people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_regdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,953 +1144,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(m_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(p_code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제약조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 회원아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreigin key(m_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔로잉 추후구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_is_smoke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건 최소2~4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_code 차량판별코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_name 차량명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_brand 차량브랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_brand_img 차브랜드 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_car_img 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_people_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_no 차량번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_code 차량판별코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 회원아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_is_driver 운전가능여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_approvedate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>approve_wait(운전자승인대기)--&gt;관리자영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger 동승자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(m_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(driver_seq)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver 내일운전할</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_seq 테이블 고유번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 운전자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_depart_location 운전자 출발 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_is_smoke 드라이버 흡연 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_comment 드라이버 요구사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_depart_time 드라이버 출발 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger_seq 테이블 고유 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 동승자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger_depart_time 동승자 출발 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">driver_seq 운전자 번호 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin(관리자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제약조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특이사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_regdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_startdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_enddate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut sysdate+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(4000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_is_finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당첨자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_winner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 당첨자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(event_seq)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_max_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_winner_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_winner_is_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(4000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_regdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_attach_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq 번호랑 일치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackList_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_m_id 신고받은 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고받은 사람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제보자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_content 신고내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_classification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cellphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 이용문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(4000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_is_processed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 처리 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 제보자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_regdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보관일 명시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger_depart_location 동승자 위치(주소 포함,위도 경도 저장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 위도 경도 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 신정동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01012345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변(1:1 문의)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아반떼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 이미지(se)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산타페</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 이미지(su)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carinfo(차량)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12가 1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_code(포인트 코드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주유권(30000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자 평가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전 5회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_hitory 포인트 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drvier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 신정동 / 100, 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음료들고 타지 마세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lee@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재곤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경리부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 천곡동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01012349876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lee@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 천곡동 / 500, 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남자는 탑승하지 마세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">lee@emai..com </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 천곡동 / 500, 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자 평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한달간 운전자 평점 상위 2명 포인트 지급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_winnner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>approve_wait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면허 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 문의자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(admin_code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자승인 빨리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 이용문의 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트, 기타 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰레기 두고 내림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq_point_history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq_driver</t>
-  </si>
-  <si>
-    <t>seq_passenger</t>
-  </si>
-  <si>
-    <t>seq_event</t>
-  </si>
-  <si>
-    <t>seq_event_winner</t>
-  </si>
-  <si>
-    <t>seq_complain</t>
-  </si>
-  <si>
-    <t>seq_blacklist</t>
-  </si>
-  <si>
-    <t>admin_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_seq 테이블고유 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_license_img 면허파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_regdate 등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_approve 승인여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y: 승인 W:대기 C:취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 승인 대기 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq_approve_driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_detail 승인설명</t>
+    <t>sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_people_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1738,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:R17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1776,7 +1768,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
@@ -1792,13 +1784,13 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1812,10 +1804,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
@@ -1824,7 +1816,7 @@
         <v>1001</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>-5</v>
@@ -1841,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>19</v>
@@ -1850,13 +1842,13 @@
         <v>20</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I5">
         <v>1002</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1895,7 +1887,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
@@ -1908,25 +1900,25 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K9">
         <v>1002</v>
@@ -1943,16 +1935,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1966,13 +1958,13 @@
         <v>21</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1986,24 +1978,24 @@
         <v>21</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2011,13 +2003,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2025,7 +2017,7 @@
     </row>
     <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="15"/>
@@ -2035,16 +2027,16 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2062,34 +2054,34 @@
     </row>
     <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G17" s="1">
         <v>1234</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L17" s="1">
         <v>1500</v>
@@ -2104,13 +2096,13 @@
         <v>20220531</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2118,25 +2110,25 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="E18" s="21" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G18" s="8">
         <v>1234</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L18" s="8">
         <v>1500</v>
@@ -2151,13 +2143,13 @@
         <v>20220602</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2170,7 +2162,7 @@
     </row>
     <row r="20" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2180,7 +2172,7 @@
     </row>
     <row r="21" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2188,16 +2180,16 @@
         <v>1001</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J21" s="6">
         <v>4</v>
@@ -2205,7 +2197,7 @@
     </row>
     <row r="22" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>26</v>
@@ -2217,16 +2209,16 @@
         <v>1002</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J22" s="9">
         <v>4</v>
@@ -2234,10 +2226,10 @@
     </row>
     <row r="23" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>27</v>
@@ -2245,16 +2237,16 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2263,25 +2255,25 @@
     </row>
     <row r="25" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F25" s="8">
         <v>1001</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I25" s="24">
         <v>44714</v>
@@ -2289,27 +2281,25 @@
     </row>
     <row r="26" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="C27" s="13"/>
       <c r="E27" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
@@ -2322,7 +2312,7 @@
         <v>1001</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G28" s="6">
         <v>1000</v>
@@ -2336,7 +2326,7 @@
         <v>1002</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G29" s="25">
         <v>100</v>
@@ -2347,7 +2337,7 @@
         <v>1003</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G30" s="25">
         <v>500</v>
@@ -2355,7 +2345,7 @@
     </row>
     <row r="31" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -2363,7 +2353,7 @@
         <v>1004</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G31" s="26">
         <v>500</v>
@@ -2371,18 +2361,18 @@
     </row>
     <row r="32" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
@@ -2391,7 +2381,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2399,7 +2389,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
@@ -2411,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G34" s="1">
         <v>1001</v>
@@ -2422,19 +2412,19 @@
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
-        <v>86</v>
+        <v>278</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="E35" s="7">
         <v>2</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G35" s="8">
         <v>1004</v>
@@ -2445,13 +2435,13 @@
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>87</v>
+        <v>281</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>48</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2487,85 +2477,85 @@
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2578,16 +2568,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F11" s="31">
         <v>0.2951388888888889</v>
@@ -2598,16 +2588,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F12" s="28">
         <v>0.3125</v>
@@ -2642,45 +2632,45 @@
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>2</v>
@@ -2688,30 +2678,30 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2723,10 +2713,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D10" s="33">
         <v>0.31597222222222221</v>
@@ -2749,7 +2739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -2771,44 +2761,44 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -2816,26 +2806,26 @@
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D4" s="9"/>
       <c r="F4" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2844,37 +2834,37 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>2</v>
@@ -2883,24 +2873,24 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="F8" s="14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -2909,10 +2899,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>19</v>
@@ -2921,83 +2911,83 @@
         <v>20</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>2</v>
@@ -3005,39 +2995,39 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C15" s="6"/>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3045,143 +3035,143 @@
     </row>
     <row r="17" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="38" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F18" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="F20" s="14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3191,7 +3181,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F26" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -3203,7 +3193,7 @@
         <v>20220602</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -3214,7 +3204,7 @@
         <v>20220602</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -3225,7 +3215,7 @@
         <v>20220602</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3236,28 +3226,28 @@
         <v>20220602</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="F32" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3269,7 +3259,7 @@
     </row>
     <row r="33" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -3278,13 +3268,13 @@
         <v>24</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H33" s="8">
         <v>20220602</v>
@@ -3293,10 +3283,10 @@
         <v>20220630</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L33" s="8">
         <v>2</v>
@@ -3307,10 +3297,10 @@
     </row>
     <row r="34" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>2</v>
@@ -3318,16 +3308,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -3335,67 +3325,67 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F37" s="7">
         <v>2</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H37" s="8">
         <v>1</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F39" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -3406,10 +3396,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I40" s="9">
         <v>20220602</v>
@@ -3418,7 +3408,7 @@
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F42" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3436,10 +3426,10 @@
         <v>32453246</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J43" s="1">
         <v>20220602</v>
@@ -3448,10 +3438,10 @@
         <v>1</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3462,10 +3452,10 @@
         <v>32453246</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="J44" s="8">
         <v>20220602</v>
@@ -3474,16 +3464,16 @@
         <v>1</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F47" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3496,16 +3486,16 @@
         <v>1</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K48" s="9">
         <v>20220602</v>

--- a/database/dbexcel.xlsx
+++ b/database/dbexcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="회원가입" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="295">
   <si>
     <t>member(회원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1108,35 +1108,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>default W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 승인 대기 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_approve_driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_detail 승인설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_max_people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_people_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Y: 승인 W:대기 C:취소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 승인 대기 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq_approve_driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_detail 승인설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_max_people</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_regdate</t>
+    <t>is_approve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'W'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자가 승인 한 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1144,15 +1180,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_people_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 1</t>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑승신청 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_deletion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'N'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑승자 삭제여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1730,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2292,7 +2340,7 @@
     </row>
     <row r="27" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>19</v>
@@ -2412,13 +2460,13 @@
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>280</v>
       </c>
       <c r="E35" s="7">
         <v>2</v>
@@ -2435,13 +2483,13 @@
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2616,10 +2664,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2687,48 +2735,90 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B13" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D13" s="33">
         <v>0.31597222222222221</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E13" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2740,7 +2830,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A33" sqref="A33:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3268,7 +3358,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
@@ -3354,10 +3444,10 @@
         <v>270</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D37" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F37" s="7">
         <v>2</v>
@@ -3374,13 +3464,13 @@
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">

--- a/database/dbexcel.xlsx
+++ b/database/dbexcel.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="299">
   <si>
     <t>member(회원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1188,10 +1188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_deletion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>char(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1201,6 +1197,26 @@
   </si>
   <si>
     <t>탑승자 삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'Y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑승신청 클릭 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2664,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2675,6 +2691,7 @@
     <col min="1" max="1" width="61.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2774,51 +2791,65 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B14" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D14" s="33">
         <v>0.31597222222222221</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/database/dbexcel.xlsx
+++ b/database/dbexcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="회원가입" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="326">
   <si>
     <t>member(회원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,11 +262,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>foreigin key(m_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로잉 추후구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_is_smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_code 차량판별코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_name 차량명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_brand 차량브랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_brand_img 차브랜드 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_car_img 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_no 차량번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_code 차량판별코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>m_id 회원아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>foreigin key(m_id)</t>
+    <t>pc_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_wait(운전자승인대기)--&gt;관리자영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger 동승자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(m_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(driver_seq)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver 내일운전할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_seq 테이블 고유번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 운전자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_depart_location 운전자 출발 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_is_smoke 드라이버 흡연 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_comment 드라이버 요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_depart_time 드라이버 출발 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger_seq 테이블 고유 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 동승자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger_depart_time 동승자 출발 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">driver_seq 운전자 번호 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin(관리자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -274,6 +478,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_startdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_enddate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut sysdate+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_is_finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>char(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,19 +534,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>팔로잉 추후구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_is_smoke</t>
+    <t>event_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당첨자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_winner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 당첨자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(event_seq)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_max_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_winner_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_winner_is_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_attach_file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -302,7 +626,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2(1000)</t>
+    <t>seq 번호랑 일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackList_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_m_id 신고받은 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고받은 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제보자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_content 신고내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_cellphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 이용문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_is_processed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 처리 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 제보자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보관일 명시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger_depart_location 동승자 위치(주소 포함,위도 경도 저장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 위도 경도 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 신정동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01012345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변(1:1 문의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아반떼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 이미지(se)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산타페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 이미지(su)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carinfo(차량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12가 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_code(포인트 코드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주유권(30000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자 평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -310,167 +858,463 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>default 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전 5회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_hitory 포인트 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drvier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 신정동 / 100, 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료들고 타지 마세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lee@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경리부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 천곡동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01012349876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lee@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 천곡동 / 500, 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자는 탑승하지 마세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lee@emai..com </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 천곡동 / 500, 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자 평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한달간 운전자 평점 상위 2명 포인트 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_winnner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면허 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 문의자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(admin_code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자승인 빨리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 이용문의 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트, 기타 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레기 두고 내림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_point_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_driver</t>
+  </si>
+  <si>
+    <t>seq_passenger</t>
+  </si>
+  <si>
+    <t>seq_event</t>
+  </si>
+  <si>
+    <t>seq_event_winner</t>
+  </si>
+  <si>
+    <t>seq_complain</t>
+  </si>
+  <si>
+    <t>seq_blacklist</t>
+  </si>
+  <si>
+    <t>admin_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_seq 테이블고유 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_license_img 면허파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_regdate 등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_approve 승인여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 승인 대기 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_approve_driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_detail 승인설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_max_people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_people_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y: 승인 W:대기 C:취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_approve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'W'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자가 승인 한 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑승신청 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'N'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑승자 삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자 등급 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_evl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">de_seq </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">default 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id 회원아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join 평점 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreigin key(g_code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급별 혜택 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>primary key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_code 차량판별코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_name 차량명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_brand 차량브랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_brand_img 차브랜드 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_car_img 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_no 차량번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_code 차량판별코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 회원아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>approve_wait(운전자승인대기)--&gt;관리자영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger 동승자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(m_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(driver_seq)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver 내일운전할</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_seq 테이블 고유번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 운전자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_depart_location 운전자 출발 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_is_smoke 드라이버 흡연 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_comment 드라이버 요구사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_depart_time 드라이버 출발 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger_seq 테이블 고유 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 동승자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger_depart_time 동승자 출발 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">driver_seq 운전자 번호 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin(관리자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제약조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특이사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_regdate</t>
+    <t>g_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'white'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 언제 주는 데 매달 1일 : 등급에 따라 포인트 주기(500,400,300,200, 0)</t>
+  </si>
+  <si>
+    <t>g_benefit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 언제 주는 데 6개월 1일 : 등급에 따라 포인트 주기(3000,2000,1500,1000, 0)</t>
+  </si>
+  <si>
+    <t>승객 등급 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger_evl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pe_seq </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de_drive_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑승횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_ride_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_benefit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑승신청 클릭 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'Y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,745 +1322,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_startdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_enddate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut sysdate+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(4000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_is_finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당첨자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_winner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 당첨자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(event_seq)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_max_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_winner_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_winner_is_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(4000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_regdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_attach_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq 번호랑 일치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackList_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_m_id 신고받은 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고받은 사람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제보자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_content 신고내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain_classification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_cellphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 이용문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(4000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_is_processed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 처리 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 제보자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_regdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보관일 명시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger_depart_location 동승자 위치(주소 포함,위도 경도 저장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 위도 경도 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 신정동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01012345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변(1:1 문의)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아반떼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 이미지(se)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산타페</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 이미지(su)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carinfo(차량)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12가 1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_code(포인트 코드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주유권(30000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자 평가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전 5회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_hitory 포인트 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drvier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 신정동 / 100, 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음료들고 타지 마세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lee@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재곤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경리부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 천곡동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01012349876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lee@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 천곡동 / 500, 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남자는 탑승하지 마세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passenger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">lee@emai..com </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산 천곡동 / 500, 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자 평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한달간 운전자 평점 상위 2명 포인트 지급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_winnner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>approve_wait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면허 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_id 문의자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key(admin_code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자승인 빨리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 이용문의 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트, 기타 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰레기 두고 내림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq_point_history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq_driver</t>
-  </si>
-  <si>
-    <t>seq_passenger</t>
-  </si>
-  <si>
-    <t>seq_event</t>
-  </si>
-  <si>
-    <t>seq_event_winner</t>
-  </si>
-  <si>
-    <t>seq_complain</t>
-  </si>
-  <si>
-    <t>seq_blacklist</t>
-  </si>
-  <si>
-    <t>admin_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_seq 테이블고유 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_license_img 면허파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_regdate 등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_approve 승인여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 승인 대기 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq_approve_driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_detail 승인설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci_max_people</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_regdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_people_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y: 승인 W:대기 C:취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_approve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 'W'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전자가 승인 한 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탑승신청 일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 'N'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탑승자 삭제여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 'Y'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탑승신청 클릭 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,7 +1330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,6 +1385,14 @@
       <b/>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1390,7 +1504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1510,6 +1624,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1795,7 +1912,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1848,7 +1965,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>26</v>
@@ -1868,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>40</v>
@@ -1897,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>19</v>
@@ -1906,7 +2023,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I5">
         <v>1002</v>
@@ -1964,10 +2081,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>45</v>
@@ -1976,7 +2093,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2022,7 +2139,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
@@ -2042,7 +2159,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>48</v>
@@ -2067,13 +2184,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2081,7 +2198,7 @@
     </row>
     <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="15"/>
@@ -2091,16 +2208,16 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2118,34 +2235,34 @@
     </row>
     <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="G17" s="1">
         <v>1234</v>
       </c>
       <c r="H17" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="K17" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="L17" s="1">
         <v>1500</v>
@@ -2160,13 +2277,13 @@
         <v>20220531</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R17" s="30" t="s">
         <v>187</v>
-      </c>
-      <c r="R17" s="30" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2174,25 +2291,25 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="E18" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="G18" s="8">
         <v>1234</v>
       </c>
       <c r="H18" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="K18" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L18" s="8">
         <v>1500</v>
@@ -2207,13 +2324,13 @@
         <v>20220602</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="R18" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="R18" s="22" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2226,7 +2343,7 @@
     </row>
     <row r="20" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2244,16 +2361,16 @@
         <v>1001</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="J21" s="6">
         <v>4</v>
@@ -2261,7 +2378,7 @@
     </row>
     <row r="22" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>26</v>
@@ -2273,16 +2390,16 @@
         <v>1002</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="J22" s="9">
         <v>4</v>
@@ -2290,7 +2407,7 @@
     </row>
     <row r="23" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
@@ -2301,7 +2418,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>33</v>
@@ -2310,7 +2427,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2319,7 +2436,7 @@
     </row>
     <row r="25" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>35</v>
@@ -2328,16 +2445,16 @@
         <v>36</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F25" s="8">
         <v>1001</v>
       </c>
       <c r="G25" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="I25" s="24">
         <v>44714</v>
@@ -2345,7 +2462,7 @@
     </row>
     <row r="26" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>35</v>
@@ -2356,14 +2473,14 @@
     </row>
     <row r="27" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="13"/>
       <c r="E27" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
@@ -2376,7 +2493,7 @@
         <v>1001</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G28" s="6">
         <v>1000</v>
@@ -2390,7 +2507,7 @@
         <v>1002</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G29" s="25">
         <v>100</v>
@@ -2401,7 +2518,7 @@
         <v>1003</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G30" s="25">
         <v>500</v>
@@ -2417,7 +2534,7 @@
         <v>1004</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G31" s="26">
         <v>500</v>
@@ -2425,7 +2542,7 @@
     </row>
     <row r="32" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
@@ -2436,7 +2553,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
@@ -2445,7 +2562,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2453,7 +2570,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
@@ -2465,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G34" s="1">
         <v>1001</v>
@@ -2476,19 +2593,19 @@
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="E35" s="7">
         <v>2</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G35" s="8">
         <v>1004</v>
@@ -2499,13 +2616,13 @@
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2524,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2541,137 +2658,148 @@
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D3" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="C12" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="31">
+      <c r="F12" s="31">
         <v>0.2951388888888889</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
         <v>2</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B13" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="28">
+      <c r="F13" s="28">
         <v>0.3125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -2682,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2691,51 +2819,50 @@
     <col min="1" max="1" width="61.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>2</v>
@@ -2743,86 +2870,86 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>291</v>
+        <v>60</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>296</v>
+        <v>60</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2834,10 +2961,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="D14" s="33">
         <v>0.31597222222222221</v>
@@ -2858,10 +2985,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:C38"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2882,44 +3009,44 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
-        <v>104</v>
-      </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -2927,26 +3054,26 @@
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="D4" s="9"/>
       <c r="F4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2955,37 +3082,37 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>2</v>
@@ -2994,24 +3121,24 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="F8" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -3020,10 +3147,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>19</v>
@@ -3032,83 +3159,83 @@
         <v>20</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="F10" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="J11" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>160</v>
-      </c>
       <c r="K11" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>2</v>
@@ -3116,39 +3243,39 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="6"/>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3156,117 +3283,117 @@
     </row>
     <row r="17" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>208</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F18" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="F20" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G20" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F21" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>49</v>
@@ -3275,24 +3402,24 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3302,7 +3429,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F26" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -3314,7 +3441,7 @@
         <v>20220602</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -3325,7 +3452,7 @@
         <v>20220602</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -3336,7 +3463,7 @@
         <v>20220602</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3347,7 +3474,7 @@
         <v>20220602</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3363,12 +3490,12 @@
     </row>
     <row r="32" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="F32" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3380,7 +3507,7 @@
     </row>
     <row r="33" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -3389,13 +3516,13 @@
         <v>24</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H33" s="8">
         <v>20220602</v>
@@ -3404,10 +3531,10 @@
         <v>20220630</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L33" s="8">
         <v>2</v>
@@ -3418,7 +3545,7 @@
     </row>
     <row r="34" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>57</v>
@@ -3429,16 +3556,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -3446,67 +3573,67 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>271</v>
-      </c>
       <c r="D37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F37" s="7">
         <v>2</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H37" s="8">
         <v>1</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F39" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -3517,109 +3644,297 @@
         <v>1</v>
       </c>
       <c r="G40" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="23" t="s">
         <v>239</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>240</v>
       </c>
       <c r="I40" s="9">
         <v>20220602</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F42" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F43" s="5">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5">
         <v>1</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G42" s="1">
         <v>32453246</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H42" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J42" s="1">
+        <v>20220602</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M42" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="I43" s="1" t="s">
+    </row>
+    <row r="43" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="F43" s="7">
+        <v>2</v>
+      </c>
+      <c r="G43" s="8">
+        <v>32453246</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="8">
         <v>20220602</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="8">
         <v>1</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F44" s="7">
-        <v>2</v>
-      </c>
-      <c r="G44" s="8">
-        <v>32453246</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="J44" s="8">
+      <c r="L43" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="K47" s="9">
         <v>20220602</v>
       </c>
-      <c r="K44" s="8">
+    </row>
+    <row r="50" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L44" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F47" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F48" s="7">
-        <v>1</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="K48" s="9">
-        <v>20220602</v>
+      <c r="C63" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3628,10 +3943,10 @@
     <hyperlink ref="G36" r:id="rId1"/>
     <hyperlink ref="G37" r:id="rId2"/>
     <hyperlink ref="H40" r:id="rId3"/>
-    <hyperlink ref="H43" r:id="rId4"/>
-    <hyperlink ref="H44" r:id="rId5"/>
-    <hyperlink ref="G48" r:id="rId6"/>
-    <hyperlink ref="H48" r:id="rId7"/>
+    <hyperlink ref="H42" r:id="rId4"/>
+    <hyperlink ref="H43" r:id="rId5"/>
+    <hyperlink ref="G47" r:id="rId6"/>
+    <hyperlink ref="H47" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
